--- a/natmiOut/OldD7/LR-pairs_lrc2p/Nid1-Itgb3.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Nid1-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Itgb3</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>52.1339663258127</v>
+        <v>55.41713066666667</v>
       </c>
       <c r="H2">
-        <v>52.1339663258127</v>
+        <v>166.251392</v>
       </c>
       <c r="I2">
-        <v>0.07800475081674264</v>
+        <v>0.08138603925734667</v>
       </c>
       <c r="J2">
-        <v>0.07800475081674264</v>
+        <v>0.08138603925734668</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.44811141007594</v>
+        <v>3.778439</v>
       </c>
       <c r="N2">
-        <v>1.44811141007594</v>
+        <v>11.335317</v>
       </c>
       <c r="O2">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="P2">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="Q2">
-        <v>75.4957914889242</v>
+        <v>209.3902477790294</v>
       </c>
       <c r="R2">
-        <v>75.4957914889242</v>
+        <v>1884.512230011264</v>
       </c>
       <c r="S2">
-        <v>0.01801300029770585</v>
+        <v>0.03461325077645867</v>
       </c>
       <c r="T2">
-        <v>0.01801300029770585</v>
+        <v>0.03461325077645867</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>52.1339663258127</v>
+        <v>55.41713066666667</v>
       </c>
       <c r="H3">
-        <v>52.1339663258127</v>
+        <v>166.251392</v>
       </c>
       <c r="I3">
-        <v>0.07800475081674264</v>
+        <v>0.08138603925734667</v>
       </c>
       <c r="J3">
-        <v>0.07800475081674264</v>
+        <v>0.08138603925734668</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.2090467085897</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N3">
-        <v>4.2090467085897</v>
+        <v>13.00021</v>
       </c>
       <c r="O3">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="P3">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="Q3">
-        <v>219.4342993693882</v>
+        <v>240.1447787547022</v>
       </c>
       <c r="R3">
-        <v>219.4342993693882</v>
+        <v>2161.30300879232</v>
       </c>
       <c r="S3">
-        <v>0.05235616478631859</v>
+        <v>0.03969712791240206</v>
       </c>
       <c r="T3">
-        <v>0.05235616478631859</v>
+        <v>0.03969712791240208</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>52.1339663258127</v>
+        <v>55.41713066666667</v>
       </c>
       <c r="H4">
-        <v>52.1339663258127</v>
+        <v>166.251392</v>
       </c>
       <c r="I4">
-        <v>0.07800475081674264</v>
+        <v>0.08138603925734667</v>
       </c>
       <c r="J4">
-        <v>0.07800475081674264</v>
+        <v>0.08138603925734668</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.231304550477101</v>
+        <v>0.2909853333333334</v>
       </c>
       <c r="N4">
-        <v>0.231304550477101</v>
+        <v>0.8729560000000001</v>
       </c>
       <c r="O4">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="P4">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="Q4">
-        <v>12.05882364558043</v>
+        <v>16.12557223941689</v>
       </c>
       <c r="R4">
-        <v>12.05882364558043</v>
+        <v>145.130150154752</v>
       </c>
       <c r="S4">
-        <v>0.002877188113852542</v>
+        <v>0.002665637400772669</v>
       </c>
       <c r="T4">
-        <v>0.002877188113852542</v>
+        <v>0.00266563740077267</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>52.1339663258127</v>
+        <v>55.41713066666667</v>
       </c>
       <c r="H5">
-        <v>52.1339663258127</v>
+        <v>166.251392</v>
       </c>
       <c r="I5">
-        <v>0.07800475081674264</v>
+        <v>0.08138603925734667</v>
       </c>
       <c r="J5">
-        <v>0.07800475081674264</v>
+        <v>0.08138603925734668</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.38253981966764</v>
+        <v>0.4814053333333333</v>
       </c>
       <c r="N5">
-        <v>0.38253981966764</v>
+        <v>1.444216</v>
       </c>
       <c r="O5">
-        <v>0.06100138221125286</v>
+        <v>0.0541864822020464</v>
       </c>
       <c r="P5">
-        <v>0.06100138221125286</v>
+        <v>0.05418648220204641</v>
       </c>
       <c r="Q5">
-        <v>19.94331807683521</v>
+        <v>26.67810226096356</v>
       </c>
       <c r="R5">
-        <v>19.94331807683521</v>
+        <v>240.102920348672</v>
       </c>
       <c r="S5">
-        <v>0.004758397618865657</v>
+        <v>0.004410023167713265</v>
       </c>
       <c r="T5">
-        <v>0.004758397618865657</v>
+        <v>0.004410023167713266</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>596.699481635529</v>
+        <v>597.374756</v>
       </c>
       <c r="H6">
-        <v>596.699481635529</v>
+        <v>1792.124268</v>
       </c>
       <c r="I6">
-        <v>0.8928036299132158</v>
+        <v>0.8773093221949784</v>
       </c>
       <c r="J6">
-        <v>0.8928036299132158</v>
+        <v>0.8773093221949785</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.44811141007594</v>
+        <v>3.778439</v>
       </c>
       <c r="N6">
-        <v>1.44811141007594</v>
+        <v>11.335317</v>
       </c>
       <c r="O6">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="P6">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="Q6">
-        <v>864.0873277428084</v>
+        <v>2257.144075685884</v>
       </c>
       <c r="R6">
-        <v>864.0873277428084</v>
+        <v>20314.29668117296</v>
       </c>
       <c r="S6">
-        <v>0.2061678536631877</v>
+        <v>0.3731171568828814</v>
       </c>
       <c r="T6">
-        <v>0.2061678536631877</v>
+        <v>0.3731171568828814</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>596.699481635529</v>
+        <v>597.374756</v>
       </c>
       <c r="H7">
-        <v>596.699481635529</v>
+        <v>1792.124268</v>
       </c>
       <c r="I7">
-        <v>0.8928036299132158</v>
+        <v>0.8773093221949784</v>
       </c>
       <c r="J7">
-        <v>0.8928036299132158</v>
+        <v>0.8773093221949785</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.2090467085897</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N7">
-        <v>4.2090467085897</v>
+        <v>13.00021</v>
       </c>
       <c r="O7">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="P7">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="Q7">
-        <v>2511.535989195203</v>
+        <v>2588.665758899587</v>
       </c>
       <c r="R7">
-        <v>2511.535989195203</v>
+        <v>23297.99183009628</v>
       </c>
       <c r="S7">
-        <v>0.5992426548400283</v>
+        <v>0.4279193421834081</v>
       </c>
       <c r="T7">
-        <v>0.5992426548400283</v>
+        <v>0.4279193421834082</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>596.699481635529</v>
+        <v>597.374756</v>
       </c>
       <c r="H8">
-        <v>596.699481635529</v>
+        <v>1792.124268</v>
       </c>
       <c r="I8">
-        <v>0.8928036299132158</v>
+        <v>0.8773093221949784</v>
       </c>
       <c r="J8">
-        <v>0.8928036299132158</v>
+        <v>0.8773093221949785</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.231304550477101</v>
+        <v>0.2909853333333334</v>
       </c>
       <c r="N8">
-        <v>0.231304550477101</v>
+        <v>0.8729560000000001</v>
       </c>
       <c r="O8">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="P8">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="Q8">
-        <v>138.0193053696252</v>
+        <v>173.8272924995787</v>
       </c>
       <c r="R8">
-        <v>138.0193053696252</v>
+        <v>1564.445632496208</v>
       </c>
       <c r="S8">
-        <v>0.03293086594206975</v>
+        <v>0.02873451715588127</v>
       </c>
       <c r="T8">
-        <v>0.03293086594206975</v>
+        <v>0.02873451715588127</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>596.699481635529</v>
+        <v>597.374756</v>
       </c>
       <c r="H9">
-        <v>596.699481635529</v>
+        <v>1792.124268</v>
       </c>
       <c r="I9">
-        <v>0.8928036299132158</v>
+        <v>0.8773093221949784</v>
       </c>
       <c r="J9">
-        <v>0.8928036299132158</v>
+        <v>0.8773093221949785</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.38253981966764</v>
+        <v>0.4814053333333333</v>
       </c>
       <c r="N9">
-        <v>0.38253981966764</v>
+        <v>1.444216</v>
       </c>
       <c r="O9">
-        <v>0.06100138221125286</v>
+        <v>0.0541864822020464</v>
       </c>
       <c r="P9">
-        <v>0.06100138221125286</v>
+        <v>0.05418648220204641</v>
       </c>
       <c r="Q9">
-        <v>228.2613121006295</v>
+        <v>287.5793935370987</v>
       </c>
       <c r="R9">
-        <v>228.2613121006295</v>
+        <v>2588.214541833888</v>
       </c>
       <c r="S9">
-        <v>0.05446225546793003</v>
+        <v>0.04753830597280759</v>
       </c>
       <c r="T9">
-        <v>0.05446225546793003</v>
+        <v>0.0475383059728076</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>19.5100283006562</v>
+        <v>0.1960536666666667</v>
       </c>
       <c r="H10">
-        <v>19.5100283006562</v>
+        <v>0.5881609999999999</v>
       </c>
       <c r="I10">
-        <v>0.0291916192700414</v>
+        <v>0.0002879259755950811</v>
       </c>
       <c r="J10">
-        <v>0.0291916192700414</v>
+        <v>0.0002879259755950811</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.44811141007594</v>
+        <v>3.778439</v>
       </c>
       <c r="N10">
-        <v>1.44811141007594</v>
+        <v>11.335317</v>
       </c>
       <c r="O10">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="P10">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="Q10">
-        <v>28.25269459308474</v>
+        <v>0.7407768202263333</v>
       </c>
       <c r="R10">
-        <v>28.25269459308474</v>
+        <v>6.666991382036999</v>
       </c>
       <c r="S10">
-        <v>0.006740982326026607</v>
+        <v>0.0001224540976470904</v>
       </c>
       <c r="T10">
-        <v>0.006740982326026607</v>
+        <v>0.0001224540976470904</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>19.5100283006562</v>
+        <v>0.1960536666666667</v>
       </c>
       <c r="H11">
-        <v>19.5100283006562</v>
+        <v>0.5881609999999999</v>
       </c>
       <c r="I11">
-        <v>0.0291916192700414</v>
+        <v>0.0002879259755950811</v>
       </c>
       <c r="J11">
-        <v>0.0291916192700414</v>
+        <v>0.0002879259755950811</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.2090467085897</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N11">
-        <v>4.2090467085897</v>
+        <v>13.00021</v>
       </c>
       <c r="O11">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="P11">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="Q11">
-        <v>82.11862040336887</v>
+        <v>0.8495796126455555</v>
       </c>
       <c r="R11">
-        <v>82.11862040336887</v>
+        <v>7.646216513809999</v>
       </c>
       <c r="S11">
-        <v>0.01959318134958671</v>
+        <v>0.0001404397411005515</v>
       </c>
       <c r="T11">
-        <v>0.01959318134958671</v>
+        <v>0.0001404397411005516</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>19.5100283006562</v>
+        <v>0.1960536666666667</v>
       </c>
       <c r="H12">
-        <v>19.5100283006562</v>
+        <v>0.5881609999999999</v>
       </c>
       <c r="I12">
-        <v>0.0291916192700414</v>
+        <v>0.0002879259755950811</v>
       </c>
       <c r="J12">
-        <v>0.0291916192700414</v>
+        <v>0.0002879259755950811</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.231304550477101</v>
+        <v>0.2909853333333334</v>
       </c>
       <c r="N12">
-        <v>0.231304550477101</v>
+        <v>0.8729560000000001</v>
       </c>
       <c r="O12">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="P12">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="Q12">
-        <v>4.512758325878801</v>
+        <v>0.05704874154622223</v>
       </c>
       <c r="R12">
-        <v>4.512758325878801</v>
+        <v>0.513438673916</v>
       </c>
       <c r="S12">
-        <v>0.001076726469970912</v>
+        <v>9.430441095349466E-06</v>
       </c>
       <c r="T12">
-        <v>0.001076726469970912</v>
+        <v>9.430441095349468E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1960536666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.5881609999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.0002879259755950811</v>
+      </c>
+      <c r="J13">
+        <v>0.0002879259755950811</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.4814053333333333</v>
+      </c>
+      <c r="N13">
+        <v>1.444216</v>
+      </c>
+      <c r="O13">
+        <v>0.0541864822020464</v>
+      </c>
+      <c r="P13">
+        <v>0.05418648220204641</v>
+      </c>
+      <c r="Q13">
+        <v>0.09438128075288887</v>
+      </c>
+      <c r="R13">
+        <v>0.8494315267759999</v>
+      </c>
+      <c r="S13">
+        <v>1.560169575208971E-05</v>
+      </c>
+      <c r="T13">
+        <v>1.560169575208971E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>27.92897333333333</v>
+      </c>
+      <c r="H14">
+        <v>83.78691999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.04101671257207978</v>
+      </c>
+      <c r="J14">
+        <v>0.04101671257207978</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.778439</v>
+      </c>
+      <c r="N14">
+        <v>11.335317</v>
+      </c>
+      <c r="O14">
+        <v>0.4252971528324392</v>
+      </c>
+      <c r="P14">
+        <v>0.4252971528324392</v>
+      </c>
+      <c r="Q14">
+        <v>105.5279220726267</v>
+      </c>
+      <c r="R14">
+        <v>949.7512986536399</v>
+      </c>
+      <c r="S14">
+        <v>0.01744429107545204</v>
+      </c>
+      <c r="T14">
+        <v>0.01744429107545205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>27.92897333333333</v>
+      </c>
+      <c r="H15">
+        <v>83.78691999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.04101671257207978</v>
+      </c>
+      <c r="J15">
+        <v>0.04101671257207978</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.333403333333333</v>
+      </c>
+      <c r="N15">
+        <v>13.00021</v>
+      </c>
+      <c r="O15">
+        <v>0.4877633593505858</v>
+      </c>
+      <c r="P15">
+        <v>0.4877633593505858</v>
+      </c>
+      <c r="Q15">
+        <v>121.0275061392444</v>
+      </c>
+      <c r="R15">
+        <v>1089.2475552532</v>
+      </c>
+      <c r="S15">
+        <v>0.02000644951367504</v>
+      </c>
+      <c r="T15">
+        <v>0.02000644951367504</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>19.5100283006562</v>
-      </c>
-      <c r="H13">
-        <v>19.5100283006562</v>
-      </c>
-      <c r="I13">
-        <v>0.0291916192700414</v>
-      </c>
-      <c r="J13">
-        <v>0.0291916192700414</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.38253981966764</v>
-      </c>
-      <c r="N13">
-        <v>0.38253981966764</v>
-      </c>
-      <c r="O13">
-        <v>0.06100138221125286</v>
-      </c>
-      <c r="P13">
-        <v>0.06100138221125286</v>
-      </c>
-      <c r="Q13">
-        <v>7.463362707843575</v>
-      </c>
-      <c r="R13">
-        <v>7.463362707843575</v>
-      </c>
-      <c r="S13">
-        <v>0.00178072912445717</v>
-      </c>
-      <c r="T13">
-        <v>0.00178072912445717</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>27.92897333333333</v>
+      </c>
+      <c r="H16">
+        <v>83.78691999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.04101671257207978</v>
+      </c>
+      <c r="J16">
+        <v>0.04101671257207978</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.2909853333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.8729560000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.03275300561492853</v>
+      </c>
+      <c r="P16">
+        <v>0.03275300561492853</v>
+      </c>
+      <c r="Q16">
+        <v>8.126921615057778</v>
+      </c>
+      <c r="R16">
+        <v>73.14229453551999</v>
+      </c>
+      <c r="S16">
+        <v>0.001343420617179239</v>
+      </c>
+      <c r="T16">
+        <v>0.001343420617179239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>27.92897333333333</v>
+      </c>
+      <c r="H17">
+        <v>83.78691999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.04101671257207978</v>
+      </c>
+      <c r="J17">
+        <v>0.04101671257207978</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.4814053333333333</v>
+      </c>
+      <c r="N17">
+        <v>1.444216</v>
+      </c>
+      <c r="O17">
+        <v>0.0541864822020464</v>
+      </c>
+      <c r="P17">
+        <v>0.05418648220204641</v>
+      </c>
+      <c r="Q17">
+        <v>13.44515671719111</v>
+      </c>
+      <c r="R17">
+        <v>121.00641045472</v>
+      </c>
+      <c r="S17">
+        <v>0.002222551365773454</v>
+      </c>
+      <c r="T17">
+        <v>0.002222551365773454</v>
       </c>
     </row>
   </sheetData>
